--- a/torcms_metadata_yml/database/meta/info_tags.xlsx
+++ b/torcms_metadata_yml/database/meta/info_tags.xlsx
@@ -20,30 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">slug</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_record,Record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_derive,Derive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_grade,Grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS Image,GIS Data,Document,Multimedia,Formatted Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation,Monitor,Detection,General Investigation,Research,Field trip,Digital data,Data reanalysis,Network capture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw,Rough,Finish,Product</t>
   </si>
   <si>
     <t xml:space="preserve">t71</t>
@@ -298,7 +280,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34765625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,67 +306,47 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
